--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/147.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/147.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2833382651129041</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.94830838722178</v>
+        <v>-1.975178382262818</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04228248864873079</v>
+        <v>0.02898437063673436</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2942031144782697</v>
+        <v>-0.2948163346764514</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2713894666903462</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.055781067145479</v>
+        <v>-2.088998621261742</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02409466958028113</v>
+        <v>0.0008711446462873624</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2953653127586331</v>
+        <v>-0.294646969097906</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2704958020691994</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.182172320207127</v>
+        <v>-2.224276457028706</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05313502610845515</v>
+        <v>0.03422594328309659</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3093160722672657</v>
+        <v>-0.3151927658331732</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2730050408421944</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.327080633181724</v>
+        <v>-2.390566444270616</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07220617427190457</v>
+        <v>0.05531487790818183</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3391477748607122</v>
+        <v>-0.3386002568266215</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2709775049813742</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.527713141593943</v>
+        <v>-2.610829299265102</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1052777235790775</v>
+        <v>0.10287156432526</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3198590795317174</v>
+        <v>-0.3236026428368073</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.262597831146589</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.459882957410552</v>
+        <v>-2.551759403627163</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2337152340401339</v>
+        <v>0.2277757584063173</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3829915589826096</v>
+        <v>-0.3832821085527004</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2492668542134318</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.323986791277088</v>
+        <v>-2.427829791646788</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3265538519486544</v>
+        <v>0.320756000979656</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4050587258286036</v>
+        <v>-0.4084927589384209</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2304848763172203</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.047301107833481</v>
+        <v>-2.155307435334406</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4462661150184405</v>
+        <v>0.4404390630876239</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3524517330650723</v>
+        <v>-0.3699401890979767</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2062189778199728</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.694541078661167</v>
+        <v>-1.799641180437138</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5262241886689645</v>
+        <v>0.5310321270323268</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2678171253793677</v>
+        <v>-0.2886038300496349</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1756657376228132</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.135006848782226</v>
+        <v>-1.233065138615745</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5073326264206969</v>
+        <v>0.5143554577379676</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2179798438442902</v>
+        <v>-0.2389782554877392</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1358061805896261</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.563161493400743</v>
+        <v>-0.6623191994467164</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4115534716570862</v>
+        <v>0.4166621799271757</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1173942107654082</v>
+        <v>-0.1389459806353115</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.08297788467614527</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00140114210328722</v>
+        <v>-0.114278468139409</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2741279051483958</v>
+        <v>0.2795797247198489</v>
       </c>
       <c r="G13" t="n">
-        <v>0.008021000147467261</v>
+        <v>-0.01574420262825363</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.01460249451866459</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6013568033790352</v>
+        <v>0.4773359383929776</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.009172526171073577</v>
+        <v>-0.013355563951527</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1502077834806109</v>
+        <v>0.1231691528850727</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.06792953306291565</v>
       </c>
       <c r="E15" t="n">
-        <v>1.1393670043018</v>
+        <v>1.023442105979831</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2299595384301961</v>
+        <v>-0.2379766624973758</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3043450604378423</v>
+        <v>0.2721334794562145</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1568541850290813</v>
       </c>
       <c r="E16" t="n">
-        <v>1.690796507228106</v>
+        <v>1.580394970834045</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6138164018667294</v>
+        <v>-0.6359580311653599</v>
       </c>
       <c r="G16" t="n">
-        <v>0.461466675692891</v>
+        <v>0.4400185692374421</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2481048836486374</v>
       </c>
       <c r="E17" t="n">
-        <v>2.296652222839216</v>
+        <v>2.188864172527881</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8302145095645804</v>
+        <v>-0.8438236178199404</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5963181774173093</v>
+        <v>0.5831923450800401</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3423796751153492</v>
       </c>
       <c r="E18" t="n">
-        <v>2.776378764020996</v>
+        <v>2.656881128020574</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.136385134180044</v>
+        <v>-1.167343993899672</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7587310069538111</v>
+        <v>0.7366945011177262</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4433086531562502</v>
       </c>
       <c r="E19" t="n">
-        <v>3.212445487140334</v>
+        <v>3.083010763833187</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.425695123441693</v>
+        <v>-1.465367550167864</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9396849871967625</v>
+        <v>0.9204897349455858</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5491854652962397</v>
       </c>
       <c r="E20" t="n">
-        <v>3.527106291404432</v>
+        <v>3.399305361911011</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.701458786515892</v>
+        <v>-1.731986932048702</v>
       </c>
       <c r="G20" t="n">
-        <v>1.122436286639622</v>
+        <v>1.099596754353538</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6551183580905983</v>
       </c>
       <c r="E21" t="n">
-        <v>3.89611008561215</v>
+        <v>3.764367026273277</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.968938136722275</v>
+        <v>-1.998451548831903</v>
       </c>
       <c r="G21" t="n">
-        <v>1.253358798951406</v>
+        <v>1.227631291541503</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.7521372554524274</v>
       </c>
       <c r="E22" t="n">
-        <v>4.251437609352328</v>
+        <v>4.111369355799093</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.246294712263655</v>
+        <v>-2.286787686016917</v>
       </c>
       <c r="G22" t="n">
-        <v>1.407785165430637</v>
+        <v>1.380096813434644</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.8340899584820308</v>
       </c>
       <c r="E23" t="n">
-        <v>4.366912812862297</v>
+        <v>4.214600596018701</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.54211286589053</v>
+        <v>-2.588159862581608</v>
       </c>
       <c r="G23" t="n">
-        <v>1.544955223523418</v>
+        <v>1.524886862513878</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8976191991222282</v>
       </c>
       <c r="E24" t="n">
-        <v>4.564130268789881</v>
+        <v>4.415374729095738</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.862451067156126</v>
+        <v>-2.915807794614338</v>
       </c>
       <c r="G24" t="n">
-        <v>1.624748311739669</v>
+        <v>1.607035008300765</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.9435686428796881</v>
       </c>
       <c r="E25" t="n">
-        <v>4.587486658100147</v>
+        <v>4.438347125758096</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.088326347012065</v>
+        <v>-3.148008002800094</v>
       </c>
       <c r="G25" t="n">
-        <v>1.713657940235555</v>
+        <v>1.691987906470288</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9741596709205447</v>
       </c>
       <c r="E26" t="n">
-        <v>4.641720144436951</v>
+        <v>4.48178501651072</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.230453998397527</v>
+        <v>-3.296908087255236</v>
       </c>
       <c r="G26" t="n">
-        <v>1.835367549093704</v>
+        <v>1.813472667922437</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9938552573440926</v>
       </c>
       <c r="E27" t="n">
-        <v>4.633521974406498</v>
+        <v>4.484267098265265</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.367435710286581</v>
+        <v>-3.442582925477561</v>
       </c>
       <c r="G27" t="n">
-        <v>1.882932995799327</v>
+        <v>1.854498559228881</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.004307222013944</v>
       </c>
       <c r="E28" t="n">
-        <v>4.582915247527511</v>
+        <v>4.44283531358955</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.439336508547425</v>
+        <v>-3.525493946391947</v>
       </c>
       <c r="G28" t="n">
-        <v>1.86521531221615</v>
+        <v>1.845108989956247</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.006926157386125</v>
       </c>
       <c r="E29" t="n">
-        <v>4.484265638217175</v>
+        <v>4.351153053769028</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.498199077356455</v>
+        <v>-3.57267102030539</v>
       </c>
       <c r="G29" t="n">
-        <v>1.904327080475413</v>
+        <v>1.883471753544873</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.00104690950297</v>
       </c>
       <c r="E30" t="n">
-        <v>4.434913092648278</v>
+        <v>4.314335021060583</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.609494163182152</v>
+        <v>-3.684580056353314</v>
       </c>
       <c r="G30" t="n">
-        <v>1.931310229243496</v>
+        <v>1.903751821527595</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.987977820610085</v>
       </c>
       <c r="E31" t="n">
-        <v>4.244400177554148</v>
+        <v>4.152069656381264</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.558045718578757</v>
+        <v>-3.62374277250133</v>
       </c>
       <c r="G31" t="n">
-        <v>1.914985431539046</v>
+        <v>1.898848980038323</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9694238514879655</v>
       </c>
       <c r="E32" t="n">
-        <v>4.127583189848634</v>
+        <v>4.053745637795199</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.483235044472732</v>
+        <v>-3.544648317296579</v>
       </c>
       <c r="G32" t="n">
-        <v>1.825297597410707</v>
+        <v>1.804534253509894</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.9495294430599601</v>
       </c>
       <c r="E33" t="n">
-        <v>3.900893203157967</v>
+        <v>3.852885361880798</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.488796367651003</v>
+        <v>-3.553888231639895</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786223790401808</v>
+        <v>1.771491905164539</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9301773572970727</v>
       </c>
       <c r="E34" t="n">
-        <v>3.733468028525376</v>
+        <v>3.697315777746386</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.449886086028286</v>
+        <v>-3.513450009690042</v>
       </c>
       <c r="G34" t="n">
-        <v>1.68840786855138</v>
+        <v>1.673982593413202</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9131094841323439</v>
       </c>
       <c r="E35" t="n">
-        <v>3.636408411586038</v>
+        <v>3.606370842211774</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.360895424863355</v>
+        <v>-3.419789384706339</v>
       </c>
       <c r="G35" t="n">
-        <v>1.623697077114215</v>
+        <v>1.613117568647491</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8978509405807303</v>
       </c>
       <c r="E36" t="n">
-        <v>3.429887529223185</v>
+        <v>3.409816248117463</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.280591319815286</v>
+        <v>-3.318992774678321</v>
       </c>
       <c r="G36" t="n">
-        <v>1.527342663402786</v>
+        <v>1.516071092140971</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8840703981778231</v>
       </c>
       <c r="E37" t="n">
-        <v>3.255928639383777</v>
+        <v>3.24714499006887</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.201260336819807</v>
+        <v>-3.23832438763157</v>
       </c>
       <c r="G37" t="n">
-        <v>1.40213477931882</v>
+        <v>1.39569158709364</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8688695456878499</v>
       </c>
       <c r="E38" t="n">
-        <v>3.134608863365901</v>
+        <v>3.118127840515723</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.08194812692693</v>
+        <v>-3.11360050948974</v>
       </c>
       <c r="G38" t="n">
-        <v>1.344413238092836</v>
+        <v>1.33053694103684</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8503558063493062</v>
       </c>
       <c r="E39" t="n">
-        <v>2.807671974753443</v>
+        <v>2.817233829700804</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.948601934784239</v>
+        <v>-2.979858644314412</v>
       </c>
       <c r="G39" t="n">
-        <v>1.211620404176599</v>
+        <v>1.203341931501146</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8260730535829268</v>
       </c>
       <c r="E40" t="n">
-        <v>2.554730323388238</v>
+        <v>2.569790719445961</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.843471902022404</v>
+        <v>-2.871272677721396</v>
       </c>
       <c r="G40" t="n">
-        <v>1.187678535581878</v>
+        <v>1.180195789115971</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7963425096284786</v>
       </c>
       <c r="E41" t="n">
-        <v>2.380567026816103</v>
+        <v>2.386703608942192</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.75855769512729</v>
+        <v>-2.780750426109102</v>
       </c>
       <c r="G41" t="n">
-        <v>1.066652229230274</v>
+        <v>1.056091701388731</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.759986976977264</v>
       </c>
       <c r="E42" t="n">
-        <v>2.151647546690619</v>
+        <v>2.155100560425618</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.659786901825407</v>
+        <v>-2.667456534446951</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9723418828461174</v>
+        <v>0.9676449081376641</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7183476456510577</v>
       </c>
       <c r="E43" t="n">
-        <v>2.036278926691286</v>
+        <v>2.039279325518104</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.585171144139518</v>
+        <v>-2.594781180673879</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8670694953954184</v>
+        <v>0.8602875720131475</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.671677769552266</v>
       </c>
       <c r="E44" t="n">
-        <v>1.829788705338342</v>
+        <v>1.829667521346796</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.573135237702112</v>
+        <v>-2.58829126690979</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7926581444422566</v>
+        <v>0.7840555410906225</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.622854903041914</v>
       </c>
       <c r="E45" t="n">
-        <v>1.592339624265769</v>
+        <v>1.584605749528226</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.464550731157187</v>
+        <v>-2.47724073913932</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6904299572611022</v>
+        <v>0.6778516429579238</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5723008255421795</v>
       </c>
       <c r="E46" t="n">
-        <v>1.397296179945549</v>
+        <v>1.384888691269007</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.419341072046245</v>
+        <v>-2.439500686061467</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6677670907940174</v>
+        <v>0.6537258083037484</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5226536282077652</v>
       </c>
       <c r="E47" t="n">
-        <v>1.115997474558715</v>
+        <v>1.107330629091081</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.357735072874398</v>
+        <v>-2.372394685731166</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5566048693445926</v>
+        <v>0.5484125395065039</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4744399245308478</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9595533216178481</v>
+        <v>0.9448535574385794</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.306060320816911</v>
+        <v>-2.318732808221954</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4690370250442525</v>
+        <v>0.4627179369067997</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4302564413589249</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7351264094680902</v>
+        <v>0.7212398920754576</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.24481641357161</v>
+        <v>-2.261291596229424</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3942329211546363</v>
+        <v>0.3920749700762732</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3909149111990163</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6128795029124867</v>
+        <v>0.5860700998672211</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.195447077449668</v>
+        <v>-2.209067866089756</v>
       </c>
       <c r="G50" t="n">
-        <v>0.320596855737747</v>
+        <v>0.3147260023642031</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3576629526095508</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4486649740318035</v>
+        <v>0.4015229412725434</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.147951713052408</v>
+        <v>-2.172365177180493</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2631717042742169</v>
+        <v>0.2619277433007627</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.329964992938758</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3313442697349259</v>
+        <v>0.2725203922003053</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.07026839432752</v>
+        <v>-2.095543286829241</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2315178616633163</v>
+        <v>0.2201732879969557</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3077654690760044</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1971132884491437</v>
+        <v>0.137620708888887</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.020245686684897</v>
+        <v>-2.040998080225028</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1337574216403426</v>
+        <v>0.1287917980831621</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2888476190187863</v>
       </c>
       <c r="E54" t="n">
-        <v>0.159673275253972</v>
+        <v>0.08763012230426406</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.971743619128956</v>
+        <v>-1.99062131092036</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07193460532699555</v>
+        <v>0.05801742692445384</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2715852056282774</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.02936207117215906</v>
+        <v>-0.111719003836046</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.95981210613005</v>
+        <v>-1.977204929013</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02925009938927974</v>
+        <v>0.01169740124037537</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2541556022296693</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.149011552174036</v>
+        <v>-0.2318955621987411</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.850227466642852</v>
+        <v>-1.857745984286986</v>
       </c>
       <c r="G56" t="n">
-        <v>0.003293364429104894</v>
+        <v>-0.02086313123497953</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2350830865961246</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3052571385745395</v>
+        <v>-0.3896771191908805</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.76935686293551</v>
+        <v>-1.785115161980688</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04836605712342669</v>
+        <v>-0.06934840823787559</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2140413494701319</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3435877811051656</v>
+        <v>-0.4408824657871395</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.757366948012968</v>
+        <v>-1.775265677559418</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1327670571145858</v>
+        <v>-0.1484654941880362</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1916228815243797</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5795257124036477</v>
+        <v>-0.6836724027762561</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.713822473749707</v>
+        <v>-1.726251863147612</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1532894930803985</v>
+        <v>-0.171735740660939</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.168999307965552</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.6015257170374599</v>
+        <v>-0.7096335178807037</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.642106371572362</v>
+        <v>-1.648174331438179</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1958440547380235</v>
+        <v>-0.206852817343475</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1475983583702878</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.7433460282997856</v>
+        <v>-0.8753431360064774</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.648659067404361</v>
+        <v>-1.657322992775813</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2408646376211932</v>
+        <v>-0.256620016570189</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1284142969489107</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.9132240837251036</v>
+        <v>-1.047874098812976</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.58625223185465</v>
+        <v>-1.595085522804648</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2970078668609054</v>
+        <v>-0.3086605106744477</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1116413418123581</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.9895904390719922</v>
+        <v>-1.13245906486359</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.620979475696914</v>
+        <v>-1.631199812333274</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3560799525709804</v>
+        <v>-0.366352850938614</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.09743051887860456</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.192318116494665</v>
+        <v>-1.344478488336806</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.587326827249559</v>
+        <v>-1.597117909747193</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3990126666841507</v>
+        <v>-0.4177056623920548</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.08528094916256468</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.365730948348073</v>
+        <v>-1.522340086723213</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.532757529851846</v>
+        <v>-1.535921454064845</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4571707622893169</v>
+        <v>-0.4703754372234952</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.07423662247324882</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.491785660324766</v>
+        <v>-1.656055671032904</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.566575163733473</v>
+        <v>-1.562545431002565</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4565152006964989</v>
+        <v>-0.4785444062921294</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.06368210518552422</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.63234887018082</v>
+        <v>-1.801423899156138</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.531682934456937</v>
+        <v>-1.524435255733667</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5073336345486671</v>
+        <v>-0.5312185612678425</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.05346993082221581</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.782530876859779</v>
+        <v>-1.956426984631278</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.563802532408838</v>
+        <v>-1.536309826857027</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5186212663394822</v>
+        <v>-0.5433179797972029</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.04375384139603295</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.882049214784207</v>
+        <v>-2.06229945184734</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.579460088135743</v>
+        <v>-1.545639534157934</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.524398676635208</v>
+        <v>-0.5542186988439273</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.03494672248343393</v>
       </c>
       <c r="E70" t="n">
-        <v>-2.007995883202173</v>
+        <v>-2.196537003349532</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.587576495473104</v>
+        <v>-1.546121350027934</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6062577329000951</v>
+        <v>-0.6381802243597229</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.0279447325346393</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.085215636658198</v>
+        <v>-2.27471819847342</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.600522741895192</v>
+        <v>-1.552603963551568</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6483757401785383</v>
+        <v>-0.6901871373578907</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.02399159017942317</v>
       </c>
       <c r="E72" t="n">
-        <v>-2.171303722218402</v>
+        <v>-2.356751000461125</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.598858287071556</v>
+        <v>-1.556214662480385</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6559723703955362</v>
+        <v>-0.6824269817547109</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.02297345961036686</v>
       </c>
       <c r="E73" t="n">
-        <v>-2.156435322484633</v>
+        <v>-2.34092480917972</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.588779575100013</v>
+        <v>-1.554702052658204</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7068915475659772</v>
+        <v>-0.7396345860526956</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.02525126166066158</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.199827221722395</v>
+        <v>-2.38093961718321</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.577071449459016</v>
+        <v>-1.536014897142663</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7057556301512502</v>
+        <v>-0.7329198248826065</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.03092621564236902</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.09688434100074</v>
+        <v>-2.278507753293373</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.529047547652847</v>
+        <v>-1.48417588967495</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7275760488698807</v>
+        <v>-0.7524552683389649</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.04017853143127804</v>
       </c>
       <c r="E76" t="n">
-        <v>-2.074962448939792</v>
+        <v>-2.246083005290473</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.413597164960424</v>
+        <v>-1.361658874222529</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7290492373936075</v>
+        <v>-0.7562002916921458</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.05345556596499957</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.924927907118014</v>
+        <v>-2.088003598487788</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.427127430618875</v>
+        <v>-1.37514241834207</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6895753772077999</v>
+        <v>-0.7168578358345199</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.07055004487328802</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.775521185975327</v>
+        <v>-1.929643132427603</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.390747412337703</v>
+        <v>-1.335159001372536</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6990890505681611</v>
+        <v>-0.7281206468077897</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.09071184565858041</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.608417221922735</v>
+        <v>-1.744590067169426</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.337766647262899</v>
+        <v>-1.267944227459463</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.670977284625805</v>
+        <v>-0.6964463635236163</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.112624260693685</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.410323737140606</v>
+        <v>-1.548537729618388</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.325360618634447</v>
+        <v>-1.259494929157374</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6019505910319144</v>
+        <v>-0.6272430041107258</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.134644887156709</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.251140533981195</v>
+        <v>-1.377360231392161</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.212098848030296</v>
+        <v>-1.150359254458131</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5442801514891117</v>
+        <v>-0.5706573802994682</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.1546707517663723</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.032145000729617</v>
+        <v>-1.159154584157765</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.181595523315031</v>
+        <v>-1.127302175006501</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.5043040347600315</v>
+        <v>-0.5296577698586611</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.17177995327982</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.7619134598718714</v>
+        <v>-0.8799349872523852</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.096411937547145</v>
+        <v>-1.037472716213343</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4745570149558577</v>
+        <v>-0.5006086530419416</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1852647730665472</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.4507523908816823</v>
+        <v>-0.552910495754473</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.033714552427344</v>
+        <v>-0.9633037332432719</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.4193102552439634</v>
+        <v>-0.4424622378215027</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1950565830236213</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.2223395474437436</v>
+        <v>-0.309695684770902</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9742774546945417</v>
+        <v>-0.9083095618511049</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3818585616640644</v>
+        <v>-0.3897515816435169</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2014190295002138</v>
       </c>
       <c r="E86" t="n">
-        <v>0.04636186301472969</v>
+        <v>-0.03003077319779525</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9214324740921922</v>
+        <v>-0.8461947359195761</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2900069362649982</v>
+        <v>-0.3063098332480847</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2034389279636037</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2989677033190255</v>
+        <v>0.2273100030653175</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8186669892135835</v>
+        <v>-0.7466398967928756</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2251545201630156</v>
+        <v>-0.2385533814932847</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2006067506193705</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5057426340496972</v>
+        <v>0.4335826772527167</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6861836854926191</v>
+        <v>-0.6296988049996343</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1935021376002059</v>
+        <v>-0.2069228996518387</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1906879051167022</v>
       </c>
       <c r="E89" t="n">
-        <v>0.7884021042572578</v>
+        <v>0.7181007886800038</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5318916434377514</v>
+        <v>-0.4764317167045845</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1160889277721358</v>
+        <v>-0.1306762682484046</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1745964844149649</v>
       </c>
       <c r="E90" t="n">
-        <v>1.0386397465581</v>
+        <v>0.9675967265506641</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.3949259920776972</v>
+        <v>-0.3431775075916202</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.06241463985415019</v>
+        <v>-0.07503675560005589</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1530586312136865</v>
       </c>
       <c r="E91" t="n">
-        <v>1.217263490047961</v>
+        <v>1.14817255433807</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2163066287321089</v>
+        <v>-0.162620660429396</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.03671633340606618</v>
+        <v>-0.04319456678542808</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1279513755025206</v>
       </c>
       <c r="E92" t="n">
-        <v>1.338682549336019</v>
+        <v>1.285856549358851</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.0689133139067848</v>
+        <v>-0.01212766350707278</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.03803183673597492</v>
+        <v>-0.04321062731442808</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1015380822536687</v>
       </c>
       <c r="E93" t="n">
-        <v>1.443670227408991</v>
+        <v>1.399937406942003</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09764605220789774</v>
+        <v>0.1414489549832496</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03730181269052057</v>
+        <v>-0.04333181130597349</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.07634752431592895</v>
       </c>
       <c r="E94" t="n">
-        <v>1.449227170442989</v>
+        <v>1.431153235125631</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2353986694889517</v>
+        <v>0.2738855371653049</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.05804617596615137</v>
+        <v>-0.07082013671351158</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.05391351618975733</v>
       </c>
       <c r="E95" t="n">
-        <v>1.490961185073524</v>
+        <v>1.481066439161435</v>
       </c>
       <c r="F95" t="n">
-        <v>0.401417817809998</v>
+        <v>0.4289470245640815</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.08088278815605432</v>
+        <v>-0.08876558779887039</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.03462457778591194</v>
       </c>
       <c r="E96" t="n">
-        <v>1.430199823722267</v>
+        <v>1.438698763659447</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4442527087010774</v>
+        <v>0.4676368389250711</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.117765062980499</v>
+        <v>-0.1262070610421331</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.01796427202540087</v>
       </c>
       <c r="E97" t="n">
-        <v>1.359419612371195</v>
+        <v>1.365370768389739</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5223317004586019</v>
+        <v>0.5382476846975977</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1536618053435802</v>
+        <v>-0.1646807882856682</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.003138905430755611</v>
       </c>
       <c r="E98" t="n">
-        <v>1.267471623798129</v>
+        <v>1.273926496408036</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5471145567536861</v>
+        <v>0.5617091974704095</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1933546727430241</v>
+        <v>-0.1981728314430228</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.009926422060370328</v>
       </c>
       <c r="E99" t="n">
-        <v>1.205126110268237</v>
+        <v>1.226720221532776</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5713688756398615</v>
+        <v>0.5769185184334054</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2166614204181997</v>
+        <v>-0.2129003365360189</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.02532747221044149</v>
       </c>
       <c r="E100" t="n">
-        <v>1.108730815210263</v>
+        <v>1.118451815399533</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5453814796697776</v>
+        <v>0.546238527899141</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2329161358142862</v>
+        <v>-0.2294879428968326</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.04281669344810778</v>
       </c>
       <c r="E101" t="n">
-        <v>1.020413966239286</v>
+        <v>1.037211819525191</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5306583547210542</v>
+        <v>0.5288610355211456</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2244624573679249</v>
+        <v>-0.2206969933414713</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.06930838818762312</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9529276233813044</v>
+        <v>0.9648197150817558</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4707379810701612</v>
+        <v>0.4761825004011597</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2514631267130994</v>
+        <v>-0.2490642676997364</v>
       </c>
     </row>
   </sheetData>
